--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:02:37+00:00</t>
+    <t>2024-09-19T15:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T15:14:04+00:00</t>
+    <t>2024-10-30T13:59:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:59:05+00:00</t>
+    <t>2024-10-30T13:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:59:47+00:00</t>
+    <t>2024-10-30T14:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T14:04:06+00:00</t>
+    <t>2025-02-06T16:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T16:11:37+00:00</t>
+    <t>2025-02-06T16:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T16:12:11+00:00</t>
+    <t>2025-02-06T16:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
   <si>
     <t>Property</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T17:11:19+00:00</t>
+    <t>2025-02-11T12:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,43 +83,46 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Mapping entre le MOS et les profils cahiers de liaison pour les profils qui ne sont pas présents dans ce guide.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Donner un indice fonctionnel du mapping entre FHIR et MOS.</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/12.html</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Mapping entre le MOS et les profils cahiers de liaison pour les profils qui ne sont pas présents dans ce guide.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Donner un indice fonctionnel du mapping entre FHIR et MOS.</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/12.html</t>
   </si>
   <si>
     <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person</t>
@@ -583,101 +586,101 @@
         <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -715,101 +718,101 @@
         <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -847,33 +850,33 @@
         <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -911,101 +914,101 @@
         <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1043,152 +1046,152 @@
         <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1226,50 +1229,50 @@
         <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T12:46:54+00:00</t>
+    <t>2025-02-11T12:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T12:48:58+00:00</t>
+    <t>2025-02-11T12:48:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T12:48:38+00:00</t>
+    <t>2025-02-11T13:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ConceptMap-mos-cdl.xlsx
+++ b/main/ig/ConceptMap-mos-cdl.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T13:13:01+00:00</t>
+    <t>2025-02-11T13:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
